--- a/web/excel/车辆批量导入模板.xlsx
+++ b/web/excel/车辆批量导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14895"/>
+    <workbookView windowHeight="14325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <t>车牌号</t>
   </si>
   <si>
+    <t>车长</t>
+  </si>
+  <si>
     <t>车型</t>
   </si>
   <si>
-    <t>温控</t>
-  </si>
-  <si>
     <t>验车日期</t>
   </si>
   <si>
@@ -54,7 +54,7 @@
     <t>4.2米</t>
   </si>
   <si>
-    <t>冷冻</t>
+    <t>平板</t>
   </si>
   <si>
     <t>赵大</t>
@@ -66,7 +66,7 @@
     <t>5.2米</t>
   </si>
   <si>
-    <t>恒温</t>
+    <t>厢车</t>
   </si>
   <si>
     <t>钱二</t>
@@ -78,7 +78,7 @@
     <t>6.8米</t>
   </si>
   <si>
-    <t>冷冻/冷藏</t>
+    <t>高栏</t>
   </si>
   <si>
     <t>张三</t>
@@ -117,10 +117,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +162,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -141,12 +186,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -155,22 +221,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,83 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +269,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,19 +365,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,145 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,80 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,6 +486,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1180,11 +1180,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>"冷藏,冷冻,恒温,常温,冷冻/冷藏"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D5:D1048576">
+      <formula1>"平板,厢车,高栏,槽罐"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"4.2米,5.2米,6.8米,7.6米,9.6米,12.5米,15米"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 C5:C1048576">
+      <formula1>"4.2米,5.2米,6.8米,7.6米,9.6米,12.5米,13米,17.5米"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
